--- a/data/All data is used for ML.xlsx
+++ b/data/All data is used for ML.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Intrinsic_viscosity" sheetId="1" r:id="rId1"/>
@@ -83,13 +83,13 @@
     </r>
   </si>
   <si>
-    <t>C_i/C_m(wt/M)</t>
+    <t>C_i/C_m((g/L)/M)</t>
   </si>
   <si>
-    <t>C_ci/C_m(wt/M)</t>
+    <t>C_ci/C_m((g/L)/M)</t>
   </si>
   <si>
-    <t>C_t/C_m(wt/M)</t>
+    <t>C_t/C_m((g/L)/M)</t>
   </si>
   <si>
     <t>C_m (M)</t>
@@ -365,12 +365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -379,6 +373,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -1189,21 +1189,21 @@
   <dimension ref="A1:L167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.775" customWidth="1"/>
+    <col min="1" max="1" width="23.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="20.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="21.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.8833333333333" customWidth="1"/>
-    <col min="5" max="5" width="11.4416666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.8833333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="21.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="10.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="17.8796296296296" customWidth="1"/>
+    <col min="7" max="7" width="11.8796296296296" customWidth="1"/>
     <col min="8" max="8" width="14.6666666666667" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.8833333333333" style="9" customWidth="1"/>
-    <col min="10" max="10" width="15.775" customWidth="1"/>
+    <col min="9" max="9" width="16.8796296296296" style="9" customWidth="1"/>
+    <col min="10" max="10" width="15.7777777777778" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
@@ -1239,7 +1239,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" ht="16.5" spans="1:12">
+    <row r="2" ht="15.6" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -5704,21 +5704,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="20.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="18.775" customWidth="1"/>
-    <col min="4" max="4" width="10.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="18.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="10.8796296296296" customWidth="1"/>
     <col min="5" max="5" width="10.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="16.3333333333333" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.1083333333333" customWidth="1"/>
+    <col min="10" max="10" width="13.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5747,7 +5747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:8">
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -10956,19 +10956,19 @@
   <sheetPr/>
   <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="20.2166666666667" customWidth="1"/>
-    <col min="2" max="2" width="21.775" customWidth="1"/>
+    <col min="1" max="1" width="20.212962962963" customWidth="1"/>
+    <col min="2" max="2" width="21.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="11.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="11.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.8796296296296" customWidth="1"/>
     <col min="8" max="8" width="19.3333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10998,7 +10998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:8">
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
